--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -473,10 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交易录入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,6 +518,10 @@
   </si>
   <si>
     <t>YH：银行间证券   SH：上海    SZ：深圳     CO：银行间柜台债券     OT：其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">异常排查所用报表：1、组合现金流明细→查现金；2、交易台账；3、手工分仓台账；4、产品资产对应关系报表；5、资产明细报表 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +530,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -780,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,151 +789,6 @@
     <cellStyle name="输入" xfId="1" builtinId="20"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1098,6 +953,151 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1127,7 +1127,7 @@
       <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
     </ax:font>
   </ax:ocxPr>
-  <ax:ocxPr ax:name="Format" ax:value="308346881"/>
+  <ax:ocxPr ax:name="Format" ax:value="301989889"/>
   <ax:ocxPr ax:name="CurrentDate" ax:value="42781"/>
 </ax:ocx>
 </file>
@@ -3203,29 +3203,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D12" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D12" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:D12"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="账号" totalsRowLabel="汇总" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="密码" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="类型" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="列1" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="1" name="账号" totalsRowLabel="汇总" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="2" name="密码" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="3" name="类型" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="4" name="列1" dataDxfId="12" totalsRowDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="D3:J12" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="D3:J12" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="D3:J12"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="列1" dataDxfId="16"/>
-    <tableColumn id="2" name="B1" dataDxfId="15"/>
-    <tableColumn id="3" name="B2" dataDxfId="14"/>
-    <tableColumn id="4" name="B3" dataDxfId="13"/>
-    <tableColumn id="5" name="B4" dataDxfId="12"/>
-    <tableColumn id="6" name="B5" dataDxfId="11"/>
-    <tableColumn id="7" name="B6" dataDxfId="10"/>
+    <tableColumn id="1" name="列1" dataDxfId="6"/>
+    <tableColumn id="2" name="B1" dataDxfId="5"/>
+    <tableColumn id="3" name="B2" dataDxfId="4"/>
+    <tableColumn id="4" name="B3" dataDxfId="3"/>
+    <tableColumn id="5" name="B4" dataDxfId="2"/>
+    <tableColumn id="6" name="B5" dataDxfId="1"/>
+    <tableColumn id="7" name="B6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3556,7 +3556,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>108</v>
@@ -3570,7 +3570,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>109</v>
@@ -3584,7 +3584,7 @@
         <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>108</v>
@@ -3598,7 +3598,7 @@
         <v>103</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>109</v>
@@ -3679,10 +3679,10 @@
         <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3766,8 +3766,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3890,14 +3890,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
@@ -4209,12 +4209,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="8">
         <v>2</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="8">
         <v>11</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="8">
         <v>4</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8">

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="1" r:id="rId1"/>
@@ -1127,7 +1127,7 @@
       <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
     </ax:font>
   </ax:ocxPr>
-  <ax:ocxPr ax:name="Format" ax:value="301989889"/>
+  <ax:ocxPr ax:name="Format" ax:value="274399233"/>
   <ax:ocxPr ax:name="CurrentDate" ax:value="42781"/>
 </ax:ocx>
 </file>
@@ -3521,8 +3521,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3581,7 +3581,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>129</v>
@@ -3766,7 +3766,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -1127,7 +1127,7 @@
       <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
     </ax:font>
   </ax:ocxPr>
-  <ax:ocxPr ax:name="Format" ax:value="274399233"/>
+  <ax:ocxPr ax:name="Format" ax:value="358023169"/>
   <ax:ocxPr ax:name="CurrentDate" ax:value="42781"/>
 </ax:ocx>
 </file>
@@ -3714,7 +3714,7 @@
     <row r="18" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <f ca="1">TODAY()</f>
-        <v>42800</v>
+        <v>42801</v>
       </c>
     </row>
     <row r="550" spans="4:4" x14ac:dyDescent="0.15">
@@ -4199,7 +4199,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A5:D6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="133">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,10 +357,6 @@
 处理卖出日期（均为2017年的）
 逆回购（绿底去掉）逆回购不需要做卖出（删除）
 开始做模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头寸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -522,6 +518,14 @@
   </si>
   <si>
     <t xml:space="preserve">异常排查所用报表：1、组合现金流明细→查现金；2、交易台账；3、手工分仓台账；4、产品资产对应关系报表；5、资产明细报表 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头寸:是金融行业常用的一个词，是交易金融、证券、股票、期货中经常用到。头寸就是资金，指的是银行当前所有可以运用的资金的总和。主要包括在央行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">风险准备金：    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1127,7 +1131,7 @@
       <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
     </ax:font>
   </ax:ocxPr>
-  <ax:ocxPr ax:name="Format" ax:value="358023169"/>
+  <ax:ocxPr ax:name="Format" ax:value="282853377"/>
   <ax:ocxPr ax:name="CurrentDate" ax:value="42781"/>
 </ax:ocx>
 </file>
@@ -1198,13 +1202,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3521,8 +3525,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3556,10 +3560,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3570,55 +3574,55 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3676,13 +3680,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3699,7 +3703,7 @@
     </row>
     <row r="15" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>10</v>
@@ -3707,19 +3711,19 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <f ca="1">TODAY()</f>
-        <v>42801</v>
+        <v>42802</v>
       </c>
     </row>
     <row r="550" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D550" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3764,10 +3768,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3827,89 +3831,94 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="220.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:1" ht="220.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="27" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3932,7 +3941,7 @@
   <sheetData>
     <row r="3" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D3" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>24</v>
@@ -4165,7 +4174,7 @@
         <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.15">
@@ -4209,12 +4218,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="8">
         <v>2</v>
@@ -4223,7 +4232,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="8">
         <v>11</v>
@@ -4237,7 +4246,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="8">
         <v>4</v>
@@ -4248,7 +4257,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -4257,7 +4266,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8">
@@ -4275,7 +4284,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="134">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t xml:space="preserve">风险准备金：    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海分拆台账：渠道号为0的管理方式是直投，根据资产编码找交易对手（类固收中渠道号与资产计划有关）
+渠道号非0的管理方式为委投，根据渠道号确定交易对手；
+净值型资产交易：渠道号为24、25、68的渠道号不填，交易对手要填！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,7 +1137,7 @@
       <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
     </ax:font>
   </ax:ocxPr>
-  <ax:ocxPr ax:name="Format" ax:value="282853377"/>
+  <ax:ocxPr ax:name="Format" ax:value="285671425"/>
   <ax:ocxPr ax:name="CurrentDate" ax:value="42781"/>
 </ax:ocx>
 </file>
@@ -3770,8 +3776,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3894,24 +3900,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>117</v>
+    <row r="27" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -1137,7 +1137,7 @@
       <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
     </ax:font>
   </ax:ocxPr>
-  <ax:ocxPr ax:name="Format" ax:value="285671425"/>
+  <ax:ocxPr ax:name="Format" ax:value="415891457"/>
   <ax:ocxPr ax:name="CurrentDate" ax:value="42781"/>
 </ax:ocx>
 </file>
@@ -3724,7 +3724,7 @@
     <row r="18" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <f ca="1">TODAY()</f>
-        <v>42802</v>
+        <v>42843</v>
       </c>
     </row>
     <row r="550" spans="4:4" x14ac:dyDescent="0.15">
@@ -3776,7 +3776,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="142">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,14 +339,6 @@
   </si>
   <si>
     <t>录入资产信息要同时修改“代客理财”；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yangyin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>助讯通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,14 +485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.2.113.124:9080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产(上海)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,6 +517,42 @@
 渠道号非0的管理方式为委投，根据渠道号确定交易对手；
 净值型资产交易：渠道号为24、25、68的渠道号不填，交易对手要填！</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">xidachun </t>
+  </si>
+  <si>
+    <t>AAAaaa111</t>
+  </si>
+  <si>
+    <t>10.2.113.124:9080</t>
+  </si>
+  <si>
+    <t>数据平台</t>
+  </si>
+  <si>
+    <t>yangyin</t>
+  </si>
+  <si>
+    <t>助讯通</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>21.96.21.42:9080/joyintech-tams</t>
+  </si>
+  <si>
+    <t>新资管系统</t>
+  </si>
+  <si>
+    <t>Xx222222</t>
+  </si>
+  <si>
+    <t>21.2.202.27/BWS/login.action</t>
+  </si>
+  <si>
+    <t>资金前置</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1157,7 @@
       <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
     </ax:font>
   </ax:ocxPr>
-  <ax:ocxPr ax:name="Format" ax:value="415891457"/>
+  <ax:ocxPr ax:name="Format" ax:value="500957185"/>
   <ax:ocxPr ax:name="CurrentDate" ax:value="42781"/>
 </ax:ocx>
 </file>
@@ -3213,8 +3233,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D12" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:D12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D14" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:D14"/>
   <tableColumns count="4">
     <tableColumn id="1" name="账号" totalsRowLabel="汇总" dataDxfId="18" totalsRowDxfId="17"/>
     <tableColumn id="2" name="密码" dataDxfId="16" totalsRowDxfId="15"/>
@@ -3531,14 +3551,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
@@ -3566,10 +3587,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3580,55 +3601,55 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3683,33 +3704,61 @@
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B12" s="7">
         <v>123456</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>41977</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>10</v>
@@ -3717,11 +3766,11 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <f ca="1">TODAY()</f>
         <v>42843</v>
@@ -3729,7 +3778,7 @@
     </row>
     <row r="550" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D550" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +3825,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -3837,17 +3886,17 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3857,7 +3906,7 @@
     </row>
     <row r="15" spans="1:1" ht="220.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
@@ -3867,57 +3916,57 @@
     </row>
     <row r="17" spans="1:1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
@@ -3947,7 +3996,7 @@
   <sheetData>
     <row r="3" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D3" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>24</v>
@@ -4180,7 +4229,7 @@
         <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.15">
@@ -4224,12 +4273,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="8">
         <v>2</v>
@@ -4238,7 +4287,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" s="8">
         <v>11</v>
@@ -4252,7 +4301,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" s="8">
         <v>4</v>
@@ -4263,7 +4312,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -4272,7 +4321,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8">
@@ -4290,7 +4339,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="144">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,6 +553,13 @@
   </si>
   <si>
     <t>资金前置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1q@z2wsx</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1164,7 @@
       <ax:ocxPr ax:name="Strikethrough" ax:value="0"/>
     </ax:font>
   </ax:ocxPr>
-  <ax:ocxPr ax:name="Format" ax:value="500957185"/>
+  <ax:ocxPr ax:name="Format" ax:value="504168449"/>
   <ax:ocxPr ax:name="CurrentDate" ax:value="42781"/>
 </ax:ocx>
 </file>
@@ -3551,8 +3558,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3688,6 +3695,9 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3769,11 +3779,16 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <f ca="1">TODAY()</f>
-        <v>42843</v>
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="550" spans="4:4" x14ac:dyDescent="0.15">
@@ -3825,7 +3840,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="生产">账号信息!$C$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -560,16 +560,17 @@
   </si>
   <si>
     <t>1q@z2wsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +619,14 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -777,13 +786,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -820,9 +830,11 @@
     <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="输入" xfId="1" builtinId="20"/>
   </cellStyles>
   <dxfs count="21">
@@ -1193,6 +1205,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1246,7 +1261,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3269,7 +3290,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3344,6 +3365,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3379,6 +3417,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3559,7 +3614,7 @@
   <dimension ref="A1:G550"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3783,11 +3838,11 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <f ca="1">TODAY()</f>
-        <v>42853</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+      <c r="B20" s="20" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3798,15 +3853,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="DTPicker21">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId5" name="DTPicker21">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -3825,12 +3883,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="DTPicker21"/>
+        <control shapeId="1025" r:id="rId5" name="DTPicker21"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4008,6 +4066,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D3" s="11" t="s">

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -3613,8 +3613,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3838,7 +3838,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <f ca="1">TODAY()</f>
-        <v>42857</v>
+        <v>42882</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,30 +461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交易录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类固收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净值型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质押式回购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产(上海)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,6 +536,14 @@
   </si>
   <si>
     <t>1q@z2wsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XMYZ002689JZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月22日到5月23日取5月19日，5月24日取0.887</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3614,7 +3598,7 @@
   <dimension ref="A1:G550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3622,7 +3606,7 @@
     <col min="1" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3649,7 +3633,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>105</v>
@@ -3663,7 +3647,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>106</v>
@@ -3677,7 +3661,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>105</v>
@@ -3691,7 +3675,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>106</v>
@@ -3751,7 +3735,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -3769,42 +3753,42 @@
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B12" s="7">
         <v>123456</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -3812,13 +3796,13 @@
         <v>41977</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3838,12 +3822,12 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <f ca="1">TODAY()</f>
-        <v>42882</v>
+        <v>42898</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="550" spans="4:4" x14ac:dyDescent="0.15">
@@ -3959,7 +3943,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
@@ -3969,7 +3953,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -4029,17 +4013,17 @@
     </row>
     <row r="25" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
@@ -4336,87 +4320,50 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="8">
-        <v>2</v>
+        <v>138</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="8">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="8">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="18"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>121</v>
-      </c>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
-      <c r="B7" s="8">
-        <f>SUM(B2:B6)</f>
-        <v>18</v>
-      </c>
-      <c r="C7" s="8">
-        <f>SUM(C3:C6)</f>
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>115</v>
-      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AAAaaa009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AAAaaa007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,6 +540,10 @@
   </si>
   <si>
     <t>5月22日到5月23日取5月19日，5月24日取0.887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAaaa111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3597,8 +3597,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3616,13 +3616,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3633,10 +3633,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3647,55 +3647,55 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3703,7 +3703,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -3735,7 +3735,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -3744,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -3753,42 +3753,42 @@
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="7">
         <v>123456</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -3796,43 +3796,43 @@
         <v>41977</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <f ca="1">TODAY()</f>
-        <v>42898</v>
+        <v>42908</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="550" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D550" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3893,137 +3893,137 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="220.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
@@ -4056,245 +4056,245 @@
   <sheetData>
     <row r="3" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="I12" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="J12" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.15">
       <c r="H15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4333,10 +4333,10 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="C2" s="8"/>
     </row>

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8565" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="1" r:id="rId1"/>
@@ -3597,7 +3597,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3822,7 +3822,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <f ca="1">TODAY()</f>
-        <v>42908</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -3882,8 +3882,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4322,13 +4322,14 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8565" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="1" r:id="rId1"/>
@@ -3597,7 +3597,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3822,7 +3822,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <f ca="1">TODAY()</f>
-        <v>42934</v>
+        <v>42937</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -4322,7 +4322,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8565"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +544,10 @@
   </si>
   <si>
     <t>AAAaaa111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z11111111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3597,8 +3601,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3715,7 +3719,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -3822,7 +3826,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <f ca="1">TODAY()</f>
-        <v>42937</v>
+        <v>42969</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">

--- a/wenjian/资管信息.xlsx
+++ b/wenjian/资管信息.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8565"/>
@@ -558,7 +558,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,7 +575,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8" tint="-0.499984740745262"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -584,16 +600,7 @@
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -776,29 +783,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -809,16 +803,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3601,224 +3606,225 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15" style="14" customWidth="1"/>
+    <col min="3" max="3" width="35" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="15" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="16">
         <v>123456</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="16">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="16">
         <v>41977</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
+      <c r="D16" s="14" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3826,7 +3832,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <f ca="1">TODAY()</f>
-        <v>42969</v>
+        <v>43027</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -3835,7 +3841,7 @@
       </c>
     </row>
     <row r="550" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D550" t="s">
+      <c r="D550" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3896,145 +3902,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="220.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
+      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -4059,232 +4065,232 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4337,38 +4343,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
